--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Sub-task.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Sub-task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_D24B052A89C24BE6970AA5B85A2FFA3EE798D3AD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2DEB29FE-972A-4EB4-A2CE-F607D876161C}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="11_D24B052A89C24BE6970AA5B85A2FFA3EE798D3AD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B66447AC-4821-4736-8675-E50F9C58F698}"/>
   <bookViews>
-    <workbookView xWindow="3828" yWindow="1656" windowWidth="19956" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="324" yWindow="492" windowWidth="19956" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-task" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -64,9 +64,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>ST00001</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -80,6 +77,15 @@
   </si>
   <si>
     <t>Không chứa số và kí tự đặc biệt, trừ khoảng trắng</t>
+  </si>
+  <si>
+    <t>ST00000</t>
+  </si>
+  <si>
+    <t>Tồn tại</t>
+  </si>
+  <si>
+    <t>TI00000</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -432,13 +438,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -455,13 +461,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>13</v>
@@ -478,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>

--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Sub-task.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/Sub-task.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\To-Do-App\ToDoApp-Doc\Document\Diagram\Thiết Kế Phần Mềm\Thiết kế lưu trữ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="11_D24B052A89C24BE6970AA5B85A2FFA3EE798D3AD" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B66447AC-4821-4736-8675-E50F9C58F698}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DF630-F6CC-4E21-9709-203F0C60FE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="492" windowWidth="19956" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub-task" sheetId="6" r:id="rId1"/>
@@ -396,11 +396,13 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="27" max="27" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
